--- a/templates/MAS-Seq-16S-protocol.xlsx
+++ b/templates/MAS-Seq-16S-protocol.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DB7D57-D535-5443-8005-E59951756EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164A589-35C3-F94D-BEF6-F7129EE70C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="Pacb_M13_primer_plate" sheetId="2" r:id="rId2"/>
     <sheet name="MASseq_bc_plates_layout" sheetId="3" r:id="rId3"/>
-    <sheet name="opentrons" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="322">
   <si>
     <t>MAS-seq 16S primer design and protocol</t>
   </si>
@@ -919,9 +918,6 @@
     <t>primer</t>
   </si>
   <si>
-    <t>plate pos</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -991,309 +987,6 @@
     <t>Tube rack and plate layouts for opentrons. Use for distributing primers to PCR plate</t>
   </si>
   <si>
-    <t>primers are diluted to 2.5 mM beforehand, 3ul per well each primer</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>C01</t>
-  </si>
-  <si>
-    <t>D01</t>
-  </si>
-  <si>
-    <t>E01</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>G01</t>
-  </si>
-  <si>
-    <t>H01</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>D02</t>
-  </si>
-  <si>
-    <t>E02</t>
-  </si>
-  <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>G02</t>
-  </si>
-  <si>
-    <t>H02</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>B03</t>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-  <si>
-    <t>D03</t>
-  </si>
-  <si>
-    <t>E03</t>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>G03</t>
-  </si>
-  <si>
-    <t>H03</t>
-  </si>
-  <si>
-    <t>A04</t>
-  </si>
-  <si>
-    <t>B04</t>
-  </si>
-  <si>
-    <t>C04</t>
-  </si>
-  <si>
-    <t>D04</t>
-  </si>
-  <si>
-    <t>E04</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t>G04</t>
-  </si>
-  <si>
-    <t>H04</t>
-  </si>
-  <si>
-    <t>A05</t>
-  </si>
-  <si>
-    <t>B05</t>
-  </si>
-  <si>
-    <t>C05</t>
-  </si>
-  <si>
-    <t>D05</t>
-  </si>
-  <si>
-    <t>E05</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t>G05</t>
-  </si>
-  <si>
-    <t>H05</t>
-  </si>
-  <si>
-    <t>A06</t>
-  </si>
-  <si>
-    <t>B06</t>
-  </si>
-  <si>
-    <t>C06</t>
-  </si>
-  <si>
-    <t>D06</t>
-  </si>
-  <si>
-    <t>E06</t>
-  </si>
-  <si>
-    <t>F06</t>
-  </si>
-  <si>
-    <t>G06</t>
-  </si>
-  <si>
-    <t>H06</t>
-  </si>
-  <si>
-    <t>A07</t>
-  </si>
-  <si>
-    <t>B07</t>
-  </si>
-  <si>
-    <t>C07</t>
-  </si>
-  <si>
-    <t>D07</t>
-  </si>
-  <si>
-    <t>E07</t>
-  </si>
-  <si>
-    <t>F07</t>
-  </si>
-  <si>
-    <t>G07</t>
-  </si>
-  <si>
-    <t>H07</t>
-  </si>
-  <si>
-    <t>A08</t>
-  </si>
-  <si>
-    <t>B08</t>
-  </si>
-  <si>
-    <t>C08</t>
-  </si>
-  <si>
-    <t>D08</t>
-  </si>
-  <si>
-    <t>E08</t>
-  </si>
-  <si>
-    <t>F08</t>
-  </si>
-  <si>
-    <t>G08</t>
-  </si>
-  <si>
-    <t>H08</t>
-  </si>
-  <si>
-    <t>A09</t>
-  </si>
-  <si>
-    <t>B09</t>
-  </si>
-  <si>
-    <t>C09</t>
-  </si>
-  <si>
-    <t>D09</t>
-  </si>
-  <si>
-    <t>E09</t>
-  </si>
-  <si>
-    <t>F09</t>
-  </si>
-  <si>
-    <t>G09</t>
-  </si>
-  <si>
-    <t>H09</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>primer1</t>
-  </si>
-  <si>
-    <t>tube rack pos1</t>
-  </si>
-  <si>
-    <t>primer2</t>
-  </si>
-  <si>
-    <t>tube rack pos2</t>
-  </si>
-  <si>
     <t>rack pos</t>
   </si>
   <si>
@@ -1304,6 +997,9 @@
   </si>
   <si>
     <t>empty</t>
+  </si>
+  <si>
+    <t>primers are diluted to 2.5 uM, 3ul per well each primer</t>
   </si>
 </sst>
 </file>
@@ -1600,32 +1296,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1688,26 +1359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35C9DC4C-56A0-1A47-BDF5-19EDA256362E}" name="Table1" displayName="Table1" ref="B20:F116" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B20:F116" xr:uid="{35C9DC4C-56A0-1A47-BDF5-19EDA256362E}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E54C2040-CC41-004A-9C30-0C11D6B4FB12}" name="primer1"/>
-    <tableColumn id="2" xr3:uid="{3C9D67B3-F198-4945-997D-DF0BCDBC44C8}" name="tube rack pos1" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{716DF63C-9795-EE44-9C4B-BC0BCEECBEFC}" name="primer2"/>
-    <tableColumn id="5" xr3:uid="{48563C17-A163-3D4A-844F-62C041AB4E1D}" name="tube rack pos2" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{57358027-1108-8A48-8FB7-5CCAA6DA112E}" name="plate pos"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0A007C6-5157-134A-8908-38EA6419DBCE}" name="Table4" displayName="Table4" ref="M20:N44" totalsRowShown="0">
-  <autoFilter ref="M20:N44" xr:uid="{F0A007C6-5157-134A-8908-38EA6419DBCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0A007C6-5157-134A-8908-38EA6419DBCE}" name="Table4" displayName="Table4" ref="B20:C44" totalsRowShown="0">
+  <autoFilter ref="B20:C44" xr:uid="{F0A007C6-5157-134A-8908-38EA6419DBCE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{168168E6-8815-0541-A3E4-2461C4048DD8}" name="rack pos"/>
     <tableColumn id="2" xr3:uid="{06446476-2E3F-A14E-9910-660A55CC9F63}" name="primer"/>
@@ -1716,9 +1369,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A0E6A662-AB74-7B40-8256-25474A57D82F}" name="Table46" displayName="Table46" ref="P20:Q44" totalsRowShown="0">
-  <autoFilter ref="P20:Q44" xr:uid="{A0E6A662-AB74-7B40-8256-25474A57D82F}"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A0E6A662-AB74-7B40-8256-25474A57D82F}" name="Table46" displayName="Table46" ref="E20:F44" totalsRowShown="0">
+  <autoFilter ref="E20:F44" xr:uid="{A0E6A662-AB74-7B40-8256-25474A57D82F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F92C8D59-5314-1644-B244-54C16BEB774A}" name="rack pos"/>
     <tableColumn id="2" xr3:uid="{7F2CC7F3-6612-B141-AA76-70FAE1834D11}" name="primer"/>
@@ -2026,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O78"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:F61"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4076,18 +3729,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D9D5C-DD0B-40AF-8A1F-8BDC2C7573E1}">
-  <dimension ref="B1:Z116"/>
+  <dimension ref="B1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="12" width="7.6640625" customWidth="1"/>
@@ -4783,2202 +4436,386 @@
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="M19" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="C20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E20" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>294</v>
       </c>
-      <c r="M20" t="s">
-        <v>419</v>
-      </c>
-      <c r="N20" t="s">
-        <v>293</v>
-      </c>
-      <c r="P20" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>298</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" t="s">
         <v>269</v>
       </c>
-      <c r="E21" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>319</v>
-      </c>
-      <c r="M21" t="s">
-        <v>291</v>
-      </c>
-      <c r="N21" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>269</v>
-      </c>
-      <c r="E22" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A3</v>
-      </c>
-      <c r="F22" t="s">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" t="s">
+        <v>272</v>
+      </c>
+      <c r="E30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" t="s">
+        <v>304</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" t="s">
+        <v>306</v>
+      </c>
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
+      <c r="E37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" t="s">
+        <v>288</v>
+      </c>
+      <c r="E38" t="s">
+        <v>309</v>
+      </c>
+      <c r="F38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" t="s">
+        <v>310</v>
+      </c>
+      <c r="F39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" t="s">
         <v>320</v>
       </c>
-      <c r="M22" t="s">
-        <v>292</v>
-      </c>
-      <c r="N22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>321</v>
-      </c>
-      <c r="M23" t="s">
-        <v>295</v>
-      </c>
-      <c r="N23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>269</v>
-      </c>
-      <c r="E24" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>322</v>
-      </c>
-      <c r="M24" t="s">
-        <v>296</v>
-      </c>
-      <c r="N24" t="s">
-        <v>76</v>
-      </c>
-      <c r="P24" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>269</v>
-      </c>
-      <c r="E25" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>323</v>
-      </c>
-      <c r="M25" t="s">
-        <v>297</v>
-      </c>
-      <c r="N25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>269</v>
-      </c>
-      <c r="E26" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>324</v>
-      </c>
-      <c r="M26" t="s">
-        <v>298</v>
-      </c>
-      <c r="N26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P26" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>269</v>
-      </c>
-      <c r="E27" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>325</v>
-      </c>
-      <c r="M27" t="s">
-        <v>299</v>
-      </c>
-      <c r="N27" t="s">
-        <v>88</v>
-      </c>
-      <c r="P27" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>269</v>
-      </c>
-      <c r="E28" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>326</v>
-      </c>
-      <c r="M28" t="s">
-        <v>300</v>
-      </c>
-      <c r="N28" t="s">
-        <v>92</v>
-      </c>
-      <c r="P28" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>271</v>
-      </c>
-      <c r="E29" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>327</v>
-      </c>
-      <c r="M29" t="s">
-        <v>301</v>
-      </c>
-      <c r="N29" t="s">
-        <v>270</v>
-      </c>
-      <c r="P29" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>271</v>
-      </c>
-      <c r="E30" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>328</v>
-      </c>
-      <c r="M30" t="s">
-        <v>302</v>
-      </c>
-      <c r="N30" t="s">
-        <v>272</v>
-      </c>
-      <c r="P30" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B3</v>
-      </c>
-      <c r="F31" t="s">
-        <v>329</v>
-      </c>
-      <c r="M31" t="s">
-        <v>303</v>
-      </c>
-      <c r="N31" t="s">
-        <v>274</v>
-      </c>
-      <c r="P31" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>330</v>
-      </c>
-      <c r="M32" t="s">
-        <v>304</v>
-      </c>
-      <c r="N32" t="s">
-        <v>276</v>
-      </c>
-      <c r="P32" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A3</v>
-      </c>
-      <c r="D33" t="s">
-        <v>271</v>
-      </c>
-      <c r="E33" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>331</v>
-      </c>
-      <c r="M33" t="s">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s">
-        <v>278</v>
-      </c>
-      <c r="P33" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>271</v>
-      </c>
-      <c r="E34" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B3</v>
-      </c>
-      <c r="F34" t="s">
-        <v>332</v>
-      </c>
-      <c r="M34" t="s">
-        <v>306</v>
-      </c>
-      <c r="N34" t="s">
-        <v>280</v>
-      </c>
-      <c r="P34" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E35" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>333</v>
-      </c>
-      <c r="M35" t="s">
-        <v>307</v>
-      </c>
-      <c r="N35" t="s">
-        <v>282</v>
-      </c>
-      <c r="P35" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>270</v>
-      </c>
-      <c r="C36" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>334</v>
-      </c>
-      <c r="M36" t="s">
-        <v>308</v>
-      </c>
-      <c r="N36" t="s">
-        <v>284</v>
-      </c>
-      <c r="P36" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C3</v>
-      </c>
-      <c r="F37" t="s">
-        <v>335</v>
-      </c>
-      <c r="M37" t="s">
-        <v>309</v>
-      </c>
-      <c r="N37" t="s">
-        <v>286</v>
-      </c>
-      <c r="P37" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E38" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>336</v>
-      </c>
-      <c r="M38" t="s">
-        <v>310</v>
-      </c>
-      <c r="N38" t="s">
-        <v>288</v>
-      </c>
-      <c r="P38" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>272</v>
-      </c>
-      <c r="C39" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>273</v>
-      </c>
-      <c r="E39" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C3</v>
-      </c>
-      <c r="F39" t="s">
-        <v>337</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="E40" t="s">
         <v>311</v>
       </c>
-      <c r="N39" t="s">
-        <v>290</v>
-      </c>
-      <c r="P39" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>272</v>
-      </c>
-      <c r="C40" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C3</v>
-      </c>
       <c r="F40" t="s">
-        <v>338</v>
-      </c>
-      <c r="M40" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>312</v>
       </c>
-      <c r="N40" t="s">
-        <v>422</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="C41" t="s">
+        <v>320</v>
+      </c>
+      <c r="E41" t="s">
         <v>312</v>
       </c>
-      <c r="Q40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C41" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C3</v>
-      </c>
       <c r="F41" t="s">
-        <v>339</v>
-      </c>
-      <c r="M41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>313</v>
       </c>
-      <c r="N41" t="s">
-        <v>422</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="C42" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" t="s">
         <v>313</v>
       </c>
-      <c r="Q41" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>272</v>
-      </c>
-      <c r="C42" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>273</v>
-      </c>
-      <c r="E42" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C3</v>
-      </c>
       <c r="F42" t="s">
-        <v>340</v>
-      </c>
-      <c r="M42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>314</v>
       </c>
-      <c r="N42" t="s">
-        <v>422</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="C43" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" t="s">
         <v>314</v>
       </c>
-      <c r="Q42" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>273</v>
-      </c>
-      <c r="E43" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C3</v>
-      </c>
       <c r="F43" t="s">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>315</v>
       </c>
-      <c r="N43" t="s">
-        <v>422</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="C44" t="s">
+        <v>320</v>
+      </c>
+      <c r="E44" t="s">
         <v>315</v>
       </c>
-      <c r="Q43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>272</v>
-      </c>
-      <c r="C44" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>273</v>
-      </c>
-      <c r="E44" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C3</v>
-      </c>
       <c r="F44" t="s">
-        <v>342</v>
-      </c>
-      <c r="M44" t="s">
-        <v>316</v>
-      </c>
-      <c r="N44" t="s">
-        <v>422</v>
-      </c>
-      <c r="P44" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>274</v>
-      </c>
-      <c r="C45" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>275</v>
-      </c>
-      <c r="E45" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>275</v>
-      </c>
-      <c r="E46" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>274</v>
-      </c>
-      <c r="C47" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>275</v>
-      </c>
-      <c r="E47" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D3</v>
-      </c>
-      <c r="F47" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>274</v>
-      </c>
-      <c r="C48" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>275</v>
-      </c>
-      <c r="E48" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>274</v>
-      </c>
-      <c r="C49" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>275</v>
-      </c>
-      <c r="E49" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>275</v>
-      </c>
-      <c r="E50" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D3</v>
-      </c>
-      <c r="F50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>275</v>
-      </c>
-      <c r="E51" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D3</v>
-      </c>
-      <c r="F51" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>274</v>
-      </c>
-      <c r="C52" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>275</v>
-      </c>
-      <c r="E52" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D3</v>
-      </c>
-      <c r="F52" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C53" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>277</v>
-      </c>
-      <c r="E53" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D3</v>
-      </c>
-      <c r="D54" t="s">
-        <v>277</v>
-      </c>
-      <c r="E54" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A4</v>
-      </c>
-      <c r="F54" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D3</v>
-      </c>
-      <c r="D55" t="s">
-        <v>277</v>
-      </c>
-      <c r="E55" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>276</v>
-      </c>
-      <c r="C56" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>277</v>
-      </c>
-      <c r="E56" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>277</v>
-      </c>
-      <c r="E57" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>276</v>
-      </c>
-      <c r="C58" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>277</v>
-      </c>
-      <c r="E58" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>276</v>
-      </c>
-      <c r="C59" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>277</v>
-      </c>
-      <c r="E59" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A4</v>
-      </c>
-      <c r="F59" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A4</v>
-      </c>
-      <c r="F60" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>279</v>
-      </c>
-      <c r="E61" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B4</v>
-      </c>
-      <c r="F61" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>279</v>
-      </c>
-      <c r="E62" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B4</v>
-      </c>
-      <c r="F62" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>278</v>
-      </c>
-      <c r="C63" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A4</v>
-      </c>
-      <c r="D63" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B4</v>
-      </c>
-      <c r="F63" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>278</v>
-      </c>
-      <c r="C64" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A4</v>
-      </c>
-      <c r="D64" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B4</v>
-      </c>
-      <c r="F64" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>278</v>
-      </c>
-      <c r="C65" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A4</v>
-      </c>
-      <c r="D65" t="s">
-        <v>279</v>
-      </c>
-      <c r="E65" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B4</v>
-      </c>
-      <c r="F65" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>278</v>
-      </c>
-      <c r="C66" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>278</v>
-      </c>
-      <c r="C67" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>279</v>
-      </c>
-      <c r="E67" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>278</v>
-      </c>
-      <c r="C68" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>280</v>
-      </c>
-      <c r="C69" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B4</v>
-      </c>
-      <c r="D69" t="s">
-        <v>281</v>
-      </c>
-      <c r="E69" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C4</v>
-      </c>
-      <c r="F69" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>280</v>
-      </c>
-      <c r="C70" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>281</v>
-      </c>
-      <c r="E70" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C4</v>
-      </c>
-      <c r="F70" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>280</v>
-      </c>
-      <c r="C71" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>281</v>
-      </c>
-      <c r="E71" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>280</v>
-      </c>
-      <c r="C72" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B4</v>
-      </c>
-      <c r="D72" t="s">
-        <v>281</v>
-      </c>
-      <c r="E72" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C4</v>
-      </c>
-      <c r="F72" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>281</v>
-      </c>
-      <c r="E73" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C4</v>
-      </c>
-      <c r="F73" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>280</v>
-      </c>
-      <c r="C74" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>281</v>
-      </c>
-      <c r="E74" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C4</v>
-      </c>
-      <c r="F74" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>280</v>
-      </c>
-      <c r="C75" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>281</v>
-      </c>
-      <c r="E75" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>280</v>
-      </c>
-      <c r="C76" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>281</v>
-      </c>
-      <c r="E76" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>282</v>
-      </c>
-      <c r="C77" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>283</v>
-      </c>
-      <c r="E77" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D4</v>
-      </c>
-      <c r="F77" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>282</v>
-      </c>
-      <c r="C78" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C4</v>
-      </c>
-      <c r="D78" t="s">
-        <v>283</v>
-      </c>
-      <c r="E78" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D4</v>
-      </c>
-      <c r="F78" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>282</v>
-      </c>
-      <c r="C79" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>283</v>
-      </c>
-      <c r="E79" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>282</v>
-      </c>
-      <c r="C80" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C4</v>
-      </c>
-      <c r="D80" t="s">
-        <v>283</v>
-      </c>
-      <c r="E80" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D4</v>
-      </c>
-      <c r="F80" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>282</v>
-      </c>
-      <c r="C81" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C4</v>
-      </c>
-      <c r="D81" t="s">
-        <v>283</v>
-      </c>
-      <c r="E81" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>282</v>
-      </c>
-      <c r="C82" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C4</v>
-      </c>
-      <c r="D82" t="s">
-        <v>283</v>
-      </c>
-      <c r="E82" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D4</v>
-      </c>
-      <c r="F82" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>282</v>
-      </c>
-      <c r="C83" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C4</v>
-      </c>
-      <c r="D83" t="s">
-        <v>283</v>
-      </c>
-      <c r="E83" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D4</v>
-      </c>
-      <c r="F83" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>282</v>
-      </c>
-      <c r="C84" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C4</v>
-      </c>
-      <c r="D84" t="s">
-        <v>283</v>
-      </c>
-      <c r="E84" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>284</v>
-      </c>
-      <c r="C85" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>285</v>
-      </c>
-      <c r="E85" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>284</v>
-      </c>
-      <c r="C86" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D4</v>
-      </c>
-      <c r="D86" t="s">
-        <v>285</v>
-      </c>
-      <c r="E86" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A5</v>
-      </c>
-      <c r="F86" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>284</v>
-      </c>
-      <c r="C87" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D4</v>
-      </c>
-      <c r="D87" t="s">
-        <v>285</v>
-      </c>
-      <c r="E87" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D4</v>
-      </c>
-      <c r="D88" t="s">
-        <v>285</v>
-      </c>
-      <c r="E88" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A5</v>
-      </c>
-      <c r="F88" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>284</v>
-      </c>
-      <c r="C89" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D4</v>
-      </c>
-      <c r="D89" t="s">
-        <v>285</v>
-      </c>
-      <c r="E89" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>284</v>
-      </c>
-      <c r="C90" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D4</v>
-      </c>
-      <c r="D90" t="s">
-        <v>285</v>
-      </c>
-      <c r="E90" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A5</v>
-      </c>
-      <c r="F90" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>284</v>
-      </c>
-      <c r="C91" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D4</v>
-      </c>
-      <c r="D91" t="s">
-        <v>285</v>
-      </c>
-      <c r="E91" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>D4</v>
-      </c>
-      <c r="D92" t="s">
-        <v>285</v>
-      </c>
-      <c r="E92" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A5</v>
-      </c>
-      <c r="F92" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>286</v>
-      </c>
-      <c r="C93" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A5</v>
-      </c>
-      <c r="D93" t="s">
-        <v>287</v>
-      </c>
-      <c r="E93" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B5</v>
-      </c>
-      <c r="F93" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A5</v>
-      </c>
-      <c r="D94" t="s">
-        <v>287</v>
-      </c>
-      <c r="E94" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>286</v>
-      </c>
-      <c r="C95" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A5</v>
-      </c>
-      <c r="D95" t="s">
-        <v>287</v>
-      </c>
-      <c r="E95" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>286</v>
-      </c>
-      <c r="C96" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A5</v>
-      </c>
-      <c r="D96" t="s">
-        <v>287</v>
-      </c>
-      <c r="E96" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>286</v>
-      </c>
-      <c r="C97" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A5</v>
-      </c>
-      <c r="D97" t="s">
-        <v>287</v>
-      </c>
-      <c r="E97" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B5</v>
-      </c>
-      <c r="F97" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>286</v>
-      </c>
-      <c r="C98" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A5</v>
-      </c>
-      <c r="D98" t="s">
-        <v>287</v>
-      </c>
-      <c r="E98" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B5</v>
-      </c>
-      <c r="F98" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A5</v>
-      </c>
-      <c r="D99" t="s">
-        <v>287</v>
-      </c>
-      <c r="E99" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>286</v>
-      </c>
-      <c r="C100" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>A5</v>
-      </c>
-      <c r="D100" t="s">
-        <v>287</v>
-      </c>
-      <c r="E100" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>288</v>
-      </c>
-      <c r="C101" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B5</v>
-      </c>
-      <c r="D101" t="s">
-        <v>289</v>
-      </c>
-      <c r="E101" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>288</v>
-      </c>
-      <c r="C102" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B5</v>
-      </c>
-      <c r="D102" t="s">
-        <v>289</v>
-      </c>
-      <c r="E102" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C5</v>
-      </c>
-      <c r="F102" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>288</v>
-      </c>
-      <c r="C103" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B5</v>
-      </c>
-      <c r="D103" t="s">
-        <v>289</v>
-      </c>
-      <c r="E103" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C5</v>
-      </c>
-      <c r="F103" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>288</v>
-      </c>
-      <c r="C104" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B5</v>
-      </c>
-      <c r="D104" t="s">
-        <v>289</v>
-      </c>
-      <c r="E104" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>288</v>
-      </c>
-      <c r="C105" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B5</v>
-      </c>
-      <c r="D105" t="s">
-        <v>289</v>
-      </c>
-      <c r="E105" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C5</v>
-      </c>
-      <c r="F105" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>288</v>
-      </c>
-      <c r="C106" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B5</v>
-      </c>
-      <c r="D106" t="s">
-        <v>289</v>
-      </c>
-      <c r="E106" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>288</v>
-      </c>
-      <c r="C107" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B5</v>
-      </c>
-      <c r="D107" t="s">
-        <v>289</v>
-      </c>
-      <c r="E107" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>288</v>
-      </c>
-      <c r="C108" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>B5</v>
-      </c>
-      <c r="D108" t="s">
-        <v>289</v>
-      </c>
-      <c r="E108" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>290</v>
-      </c>
-      <c r="C109" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C5</v>
-      </c>
-      <c r="D109" t="s">
-        <v>126</v>
-      </c>
-      <c r="E109" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>290</v>
-      </c>
-      <c r="C110" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C5</v>
-      </c>
-      <c r="D110" t="s">
-        <v>129</v>
-      </c>
-      <c r="E110" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B1</v>
-      </c>
-      <c r="F110" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>290</v>
-      </c>
-      <c r="C111" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C5</v>
-      </c>
-      <c r="D111" t="s">
-        <v>132</v>
-      </c>
-      <c r="E111" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C1</v>
-      </c>
-      <c r="F111" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>290</v>
-      </c>
-      <c r="C112" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C5</v>
-      </c>
-      <c r="D112" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>290</v>
-      </c>
-      <c r="C113" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C5</v>
-      </c>
-      <c r="D113" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>A2</v>
-      </c>
-      <c r="F113" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>290</v>
-      </c>
-      <c r="C114" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>141</v>
-      </c>
-      <c r="E114" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>B2</v>
-      </c>
-      <c r="F114" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>290</v>
-      </c>
-      <c r="C115" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C5</v>
-      </c>
-      <c r="D115" t="s">
-        <v>144</v>
-      </c>
-      <c r="E115" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>C2</v>
-      </c>
-      <c r="F115" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>290</v>
-      </c>
-      <c r="C116" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer1]],Table4[primer],Table4[rack pos], "")</f>
-        <v>C5</v>
-      </c>
-      <c r="D116" t="s">
-        <v>147</v>
-      </c>
-      <c r="E116" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[primer2]],Table46[primer],Table46[rack pos],"")</f>
-        <v>D2</v>
-      </c>
-      <c r="F116" t="s">
-        <v>414</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3FB680-5A46-364C-A43D-5262CF4A5302}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001E05E3E08A189B47ACB9FE87F2F92D69" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="332b0bd7d12b1175dc39d7172eb0e0ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="80076624-d337-404c-ab9f-cba692b12320" xmlns:ns3="d143510e-973c-4878-93c8-907034ab8abb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04fe923dfb1ff154267149ebe72cee84" ns2:_="" ns3:_="">
     <xsd:import namespace="80076624-d337-404c-ab9f-cba692b12320"/>
@@ -7227,7 +5064,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d143510e-973c-4878-93c8-907034ab8abb" xsi:nil="true"/>
@@ -7239,15 +5076,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B1ED15-3FC4-41FD-B279-3A6F41E09E7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3736090E-6FC5-48FC-A2AA-2B960BE4F22A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7266,19 +5104,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92779487-8345-41A7-80D9-0512911337C0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d143510e-973c-4878-93c8-907034ab8abb"/>
     <ds:schemaRef ds:uri="80076624-d337-404c-ab9f-cba692b12320"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d143510e-973c-4878-93c8-907034ab8abb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B1ED15-3FC4-41FD-B279-3A6F41E09E7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>